--- a/Code/Results/Cases/Case_3_73/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_73/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>1.00620072304243</v>
+        <v>1.037072668327167</v>
       </c>
       <c r="D2">
-        <v>1.026613481703348</v>
+        <v>1.043628341595469</v>
       </c>
       <c r="E2">
-        <v>1.021307710837535</v>
+        <v>1.045584069080439</v>
       </c>
       <c r="F2">
-        <v>1.031040132831453</v>
+        <v>1.055686291238313</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050024081935434</v>
+        <v>1.036456979540641</v>
       </c>
       <c r="J2">
-        <v>1.028197540179305</v>
+        <v>1.042177528584906</v>
       </c>
       <c r="K2">
-        <v>1.03771409312567</v>
+        <v>1.046401671358399</v>
       </c>
       <c r="L2">
-        <v>1.032477966971988</v>
+        <v>1.048351899543528</v>
       </c>
       <c r="M2">
-        <v>1.042083325274657</v>
+        <v>1.058426066917074</v>
       </c>
       <c r="N2">
-        <v>1.029657698622271</v>
+        <v>1.04365754021493</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010796380426663</v>
+        <v>1.038044225850713</v>
       </c>
       <c r="D3">
-        <v>1.030072722720303</v>
+        <v>1.044368873155201</v>
       </c>
       <c r="E3">
-        <v>1.025113441825993</v>
+        <v>1.046438048109888</v>
       </c>
       <c r="F3">
-        <v>1.035143903588571</v>
+        <v>1.056604036749747</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051288346893079</v>
+        <v>1.036632779252859</v>
       </c>
       <c r="J3">
-        <v>1.03099699051421</v>
+        <v>1.042793202718466</v>
       </c>
       <c r="K3">
-        <v>1.040334750456256</v>
+        <v>1.046953460946603</v>
       </c>
       <c r="L3">
-        <v>1.035434766958592</v>
+        <v>1.049017237895863</v>
       </c>
       <c r="M3">
-        <v>1.045346023287146</v>
+        <v>1.059157037015363</v>
       </c>
       <c r="N3">
-        <v>1.032461124497748</v>
+        <v>1.044274088676378</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013708693992813</v>
+        <v>1.038673192967832</v>
       </c>
       <c r="D4">
-        <v>1.03226530060797</v>
+        <v>1.044847929730826</v>
       </c>
       <c r="E4">
-        <v>1.027530846037362</v>
+        <v>1.046991237183872</v>
       </c>
       <c r="F4">
-        <v>1.037749391358892</v>
+        <v>1.057198397439465</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052074624688484</v>
+        <v>1.036744728684612</v>
       </c>
       <c r="J4">
-        <v>1.032768113750854</v>
+        <v>1.043191281995167</v>
       </c>
       <c r="K4">
-        <v>1.041989303814801</v>
+        <v>1.047309722938608</v>
       </c>
       <c r="L4">
-        <v>1.037307975736132</v>
+        <v>1.049447720294752</v>
       </c>
       <c r="M4">
-        <v>1.047412600986808</v>
+        <v>1.059629909696378</v>
       </c>
       <c r="N4">
-        <v>1.034234762932538</v>
+        <v>1.044672733271313</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014918855540066</v>
+        <v>1.038937682759817</v>
       </c>
       <c r="D5">
-        <v>1.033176429637446</v>
+        <v>1.045049295738069</v>
       </c>
       <c r="E5">
-        <v>1.028536672870337</v>
+        <v>1.047223942010007</v>
       </c>
       <c r="F5">
-        <v>1.038833180599254</v>
+        <v>1.057448389286197</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052397718325648</v>
+        <v>1.036791359456251</v>
       </c>
       <c r="J5">
-        <v>1.033503336686818</v>
+        <v>1.043358561016328</v>
       </c>
       <c r="K5">
-        <v>1.042675289365927</v>
+        <v>1.047459306995139</v>
       </c>
       <c r="L5">
-        <v>1.038086184064285</v>
+        <v>1.049628685420865</v>
       </c>
       <c r="M5">
-        <v>1.048271036482165</v>
+        <v>1.059828676905069</v>
       </c>
       <c r="N5">
-        <v>1.034971029969403</v>
+        <v>1.044840249847871</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015121230397196</v>
+        <v>1.038982095957593</v>
       </c>
       <c r="D6">
-        <v>1.033328798106115</v>
+        <v>1.045083104213219</v>
       </c>
       <c r="E6">
-        <v>1.028704953008717</v>
+        <v>1.047263022588626</v>
       </c>
       <c r="F6">
-        <v>1.03901448694509</v>
+        <v>1.057490371166817</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052451534127093</v>
+        <v>1.036799163569412</v>
       </c>
       <c r="J6">
-        <v>1.033626243373844</v>
+        <v>1.04338664356177</v>
       </c>
       <c r="K6">
-        <v>1.042789914716796</v>
+        <v>1.047484411731843</v>
       </c>
       <c r="L6">
-        <v>1.038216312329785</v>
+        <v>1.04965906966379</v>
       </c>
       <c r="M6">
-        <v>1.048414573581569</v>
+        <v>1.05986204908948</v>
       </c>
       <c r="N6">
-        <v>1.035094111198022</v>
+        <v>1.044868372273748</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013724919258771</v>
+        <v>1.038676726811489</v>
       </c>
       <c r="D7">
-        <v>1.032277516504561</v>
+        <v>1.044850620510475</v>
       </c>
       <c r="E7">
-        <v>1.027544326539692</v>
+        <v>1.046994346032427</v>
       </c>
       <c r="F7">
-        <v>1.037763917908794</v>
+        <v>1.057201737362729</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052078970988289</v>
+        <v>1.036745353468655</v>
       </c>
       <c r="J7">
-        <v>1.032777974226046</v>
+        <v>1.043193517475672</v>
       </c>
       <c r="K7">
-        <v>1.04199850731388</v>
+        <v>1.047311722430089</v>
       </c>
       <c r="L7">
-        <v>1.037318410309205</v>
+        <v>1.049450138398969</v>
       </c>
       <c r="M7">
-        <v>1.047424111707788</v>
+        <v>1.059632565746932</v>
       </c>
       <c r="N7">
-        <v>1.034244637410737</v>
+        <v>1.044674971926457</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007766878799469</v>
+        <v>1.037400947185703</v>
       </c>
       <c r="D8">
-        <v>1.027792231661774</v>
+        <v>1.043878631060245</v>
       </c>
       <c r="E8">
-        <v>1.022603448801065</v>
+        <v>1.04587254871274</v>
       </c>
       <c r="F8">
-        <v>1.032437602748296</v>
+        <v>1.055996339545038</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050458021948855</v>
+        <v>1.03651676513278</v>
       </c>
       <c r="J8">
-        <v>1.029152154559889</v>
+        <v>1.042385660718052</v>
       </c>
       <c r="K8">
-        <v>1.038608452575638</v>
+        <v>1.046588312657826</v>
       </c>
       <c r="L8">
-        <v>1.033485704976978</v>
+        <v>1.048576760576839</v>
       </c>
       <c r="M8">
-        <v>1.043195406204504</v>
+        <v>1.05867312453158</v>
       </c>
       <c r="N8">
-        <v>1.030613668664766</v>
+        <v>1.043865967919578</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9967731303915799</v>
+        <v>1.035155230024456</v>
       </c>
       <c r="D9">
-        <v>1.019522278897027</v>
+        <v>1.042165027898826</v>
       </c>
       <c r="E9">
-        <v>1.013533983053949</v>
+        <v>1.043900508940992</v>
       </c>
       <c r="F9">
-        <v>1.022650832442779</v>
+        <v>1.053876302797093</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047350990213562</v>
+        <v>1.036100172289784</v>
       </c>
       <c r="J9">
-        <v>1.022440354602212</v>
+        <v>1.040959834704433</v>
       </c>
       <c r="K9">
-        <v>1.032306366693497</v>
+        <v>1.045307624853312</v>
       </c>
       <c r="L9">
-        <v>1.02641123181682</v>
+        <v>1.047037527815955</v>
       </c>
       <c r="M9">
-        <v>1.03538680238185</v>
+        <v>1.056981647683585</v>
       </c>
       <c r="N9">
-        <v>1.023892337181296</v>
+        <v>1.042438117069476</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9890742371352543</v>
+        <v>1.033659727636023</v>
       </c>
       <c r="D10">
-        <v>1.013739393017496</v>
+        <v>1.041022146995464</v>
       </c>
       <c r="E10">
-        <v>1.00721812071679</v>
+        <v>1.042589059019807</v>
       </c>
       <c r="F10">
-        <v>1.015828766097994</v>
+        <v>1.052465734382275</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045100208637189</v>
+        <v>1.03581321264756</v>
       </c>
       <c r="J10">
-        <v>1.017728148070716</v>
+        <v>1.040007806886366</v>
       </c>
       <c r="K10">
-        <v>1.027864931805158</v>
+        <v>1.044449897474266</v>
       </c>
       <c r="L10">
-        <v>1.021458261385606</v>
+        <v>1.046011279677142</v>
       </c>
       <c r="M10">
-        <v>1.029917989938068</v>
+        <v>1.055853516276417</v>
       </c>
       <c r="N10">
-        <v>1.019173438776027</v>
+        <v>1.041484737262708</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9856438574047279</v>
+        <v>1.033012557907566</v>
       </c>
       <c r="D11">
-        <v>1.01116576404838</v>
+        <v>1.040527170222608</v>
       </c>
       <c r="E11">
-        <v>1.004413188882529</v>
+        <v>1.042021971691876</v>
       </c>
       <c r="F11">
-        <v>1.012797426542586</v>
+        <v>1.051855620971629</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044080396392393</v>
+        <v>1.035686774890858</v>
       </c>
       <c r="J11">
-        <v>1.015626309178135</v>
+        <v>1.039595229246128</v>
       </c>
       <c r="K11">
-        <v>1.025880138300291</v>
+        <v>1.044077571543895</v>
       </c>
       <c r="L11">
-        <v>1.019252356075743</v>
+        <v>1.045566893424691</v>
       </c>
       <c r="M11">
-        <v>1.027481971293935</v>
+        <v>1.055364923475025</v>
       </c>
       <c r="N11">
-        <v>1.017068615031134</v>
+        <v>1.041071573714897</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9843543036919364</v>
+        <v>1.032772229963359</v>
       </c>
       <c r="D12">
-        <v>1.010198828939236</v>
+        <v>1.040343299830167</v>
       </c>
       <c r="E12">
-        <v>1.003360211195024</v>
+        <v>1.041811448495112</v>
       </c>
       <c r="F12">
-        <v>1.011659213726391</v>
+        <v>1.051629099948681</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043694556739162</v>
+        <v>1.035639483038133</v>
       </c>
       <c r="J12">
-        <v>1.014835901417515</v>
+        <v>1.039441928822678</v>
       </c>
       <c r="K12">
-        <v>1.025133209621277</v>
+        <v>1.043939135240614</v>
       </c>
       <c r="L12">
-        <v>1.018423316771611</v>
+        <v>1.045401827446493</v>
       </c>
       <c r="M12">
-        <v>1.026566399387142</v>
+        <v>1.055183423777465</v>
       </c>
       <c r="N12">
-        <v>1.016277084800833</v>
+        <v>1.040918055587261</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9846316262876634</v>
+        <v>1.032823778409825</v>
       </c>
       <c r="D13">
-        <v>1.010406745140906</v>
+        <v>1.040382741265104</v>
       </c>
       <c r="E13">
-        <v>1.003586590352567</v>
+        <v>1.041856601063051</v>
       </c>
       <c r="F13">
-        <v>1.011903928457546</v>
+        <v>1.051677684828606</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043777643153192</v>
+        <v>1.035649642099291</v>
       </c>
       <c r="J13">
-        <v>1.01500589291063</v>
+        <v>1.039474814565193</v>
       </c>
       <c r="K13">
-        <v>1.025293873994562</v>
+        <v>1.043968836520838</v>
       </c>
       <c r="L13">
-        <v>1.018601593878317</v>
+        <v>1.045437234695073</v>
       </c>
       <c r="M13">
-        <v>1.026763286659682</v>
+        <v>1.055222356720431</v>
       </c>
       <c r="N13">
-        <v>1.016447317701366</v>
+        <v>1.040950988031303</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9855375807941377</v>
+        <v>1.03299269110257</v>
       </c>
       <c r="D14">
-        <v>1.011086063892349</v>
+        <v>1.040511971716224</v>
       </c>
       <c r="E14">
-        <v>1.004326379289193</v>
+        <v>1.042004567358657</v>
       </c>
       <c r="F14">
-        <v>1.012703594903919</v>
+        <v>1.051836894579572</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04404864776917</v>
+        <v>1.035682872403523</v>
       </c>
       <c r="J14">
-        <v>1.015561174317755</v>
+        <v>1.039582558414962</v>
       </c>
       <c r="K14">
-        <v>1.025818597166839</v>
+        <v>1.044066131162762</v>
       </c>
       <c r="L14">
-        <v>1.019184027469815</v>
+        <v>1.045553249037045</v>
       </c>
       <c r="M14">
-        <v>1.027406511729597</v>
+        <v>1.055349920944316</v>
       </c>
       <c r="N14">
-        <v>1.017003387671781</v>
+        <v>1.041058884889698</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9860937083886383</v>
+        <v>1.033096771720656</v>
       </c>
       <c r="D15">
-        <v>1.011503144245501</v>
+        <v>1.040591593049</v>
       </c>
       <c r="E15">
-        <v>1.004780699072015</v>
+        <v>1.042095749987683</v>
       </c>
       <c r="F15">
-        <v>1.013194654863872</v>
+        <v>1.05193500255138</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044214682736688</v>
+        <v>1.035703303347014</v>
       </c>
       <c r="J15">
-        <v>1.015902002933411</v>
+        <v>1.039648936261903</v>
       </c>
       <c r="K15">
-        <v>1.026140599312254</v>
+        <v>1.044126059362636</v>
       </c>
       <c r="L15">
-        <v>1.019541588400977</v>
+        <v>1.045624729180324</v>
       </c>
       <c r="M15">
-        <v>1.027801386698644</v>
+        <v>1.055428515574618</v>
       </c>
       <c r="N15">
-        <v>1.017344700303165</v>
+        <v>1.041125357000794</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9892997932326273</v>
+        <v>1.033702686493565</v>
       </c>
       <c r="D16">
-        <v>1.013908686472297</v>
+        <v>1.041054994941214</v>
       </c>
       <c r="E16">
-        <v>1.007402749976339</v>
+        <v>1.042626711258728</v>
       </c>
       <c r="F16">
-        <v>1.016028264791879</v>
+        <v>1.052506239869706</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045166917291746</v>
+        <v>1.035821557979681</v>
       </c>
       <c r="J16">
-        <v>1.017866307295358</v>
+        <v>1.04003518114591</v>
       </c>
       <c r="K16">
-        <v>1.027995321675781</v>
+        <v>1.044474588130645</v>
       </c>
       <c r="L16">
-        <v>1.021603330681975</v>
+        <v>1.046040771916395</v>
       </c>
       <c r="M16">
-        <v>1.030078185177517</v>
+        <v>1.05588594046614</v>
       </c>
       <c r="N16">
-        <v>1.019311794202615</v>
+        <v>1.041512150396839</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9912844275242128</v>
+        <v>1.034082866456137</v>
       </c>
       <c r="D17">
-        <v>1.015398630671116</v>
+        <v>1.04134564838024</v>
       </c>
       <c r="E17">
-        <v>1.009028332000803</v>
+        <v>1.042959978703593</v>
       </c>
       <c r="F17">
-        <v>1.017784583573663</v>
+        <v>1.052864742785462</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045751958326627</v>
+        <v>1.035895152159582</v>
       </c>
       <c r="J17">
-        <v>1.019081702067551</v>
+        <v>1.040277371051419</v>
       </c>
       <c r="K17">
-        <v>1.029141947613954</v>
+        <v>1.044692964255928</v>
       </c>
       <c r="L17">
-        <v>1.02287989223057</v>
+        <v>1.046301741461684</v>
       </c>
       <c r="M17">
-        <v>1.031487808298599</v>
+        <v>1.056172843839215</v>
       </c>
       <c r="N17">
-        <v>1.020528914974792</v>
+        <v>1.041754684239795</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.992432759235834</v>
+        <v>1.034304656835725</v>
       </c>
       <c r="D18">
-        <v>1.016261011213115</v>
+        <v>1.041515171703769</v>
       </c>
       <c r="E18">
-        <v>1.009969780991731</v>
+        <v>1.043154443059454</v>
       </c>
       <c r="F18">
-        <v>1.018801596417839</v>
+        <v>1.053073916224233</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046088858215026</v>
+        <v>1.035937867793505</v>
       </c>
       <c r="J18">
-        <v>1.019784727866065</v>
+        <v>1.040418603143511</v>
       </c>
       <c r="K18">
-        <v>1.029804839985587</v>
+        <v>1.044820250105845</v>
       </c>
       <c r="L18">
-        <v>1.023618613822947</v>
+        <v>1.04645395916297</v>
       </c>
       <c r="M18">
-        <v>1.0323034942728</v>
+        <v>1.056340179569387</v>
       </c>
       <c r="N18">
-        <v>1.021232939150578</v>
+        <v>1.041896116897657</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9928227621955027</v>
+        <v>1.034380288020136</v>
       </c>
       <c r="D19">
-        <v>1.016553943020873</v>
+        <v>1.041572973055239</v>
       </c>
       <c r="E19">
-        <v>1.010289666568387</v>
+        <v>1.04322076307914</v>
       </c>
       <c r="F19">
-        <v>1.019147131368895</v>
+        <v>1.053145249905032</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046203002568193</v>
+        <v>1.03595239697909</v>
       </c>
       <c r="J19">
-        <v>1.020023455410015</v>
+        <v>1.040466753982625</v>
       </c>
       <c r="K19">
-        <v>1.03002987841138</v>
+        <v>1.044863636122791</v>
       </c>
       <c r="L19">
-        <v>1.023869515944573</v>
+        <v>1.046505861195137</v>
       </c>
       <c r="M19">
-        <v>1.03258053060912</v>
+        <v>1.056397234972808</v>
       </c>
       <c r="N19">
-        <v>1.021472005715023</v>
+        <v>1.041944336116485</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9910724598811327</v>
+        <v>1.034042072824992</v>
       </c>
       <c r="D20">
-        <v>1.015239468199292</v>
+        <v>1.041314465032444</v>
       </c>
       <c r="E20">
-        <v>1.008854622052201</v>
+        <v>1.042924214484553</v>
       </c>
       <c r="F20">
-        <v>1.017596918826069</v>
+        <v>1.052826272108251</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045689640055672</v>
+        <v>1.03588727797995</v>
       </c>
       <c r="J20">
-        <v>1.018951914538234</v>
+        <v>1.04025138979255</v>
       </c>
       <c r="K20">
-        <v>1.029019540344595</v>
+        <v>1.044669543788631</v>
       </c>
       <c r="L20">
-        <v>1.022743540230703</v>
+        <v>1.046273742039003</v>
       </c>
       <c r="M20">
-        <v>1.03133724740541</v>
+        <v>1.056142062864597</v>
       </c>
       <c r="N20">
-        <v>1.020398943132297</v>
+        <v>1.041728666084558</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.98527123068414</v>
+        <v>1.032942948870625</v>
       </c>
       <c r="D21">
-        <v>1.010886328746535</v>
+        <v>1.04047391694475</v>
       </c>
       <c r="E21">
-        <v>1.00410884107421</v>
+        <v>1.041960991697427</v>
       </c>
       <c r="F21">
-        <v>1.012468456089757</v>
+        <v>1.051790008442733</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043969039937128</v>
+        <v>1.03567309593555</v>
       </c>
       <c r="J21">
-        <v>1.015397929192714</v>
+        <v>1.039550831929809</v>
       </c>
       <c r="K21">
-        <v>1.025664350310832</v>
+        <v>1.044037484113791</v>
       </c>
       <c r="L21">
-        <v>1.019012786095117</v>
+        <v>1.045519085728539</v>
       </c>
       <c r="M21">
-        <v>1.027217398361757</v>
+        <v>1.055312356853269</v>
       </c>
       <c r="N21">
-        <v>1.016839910719938</v>
+        <v>1.041027113349297</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9815344560680092</v>
+        <v>1.032252231823204</v>
       </c>
       <c r="D22">
-        <v>1.008085557816171</v>
+        <v>1.039945350762098</v>
       </c>
       <c r="E22">
-        <v>1.001060443145425</v>
+        <v>1.041356060275484</v>
       </c>
       <c r="F22">
-        <v>1.00917284250796</v>
+        <v>1.051139060650108</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04284638873663</v>
+        <v>1.035536538182189</v>
       </c>
       <c r="J22">
-        <v>1.013107073439609</v>
+        <v>1.039110070382944</v>
       </c>
       <c r="K22">
-        <v>1.023498522109104</v>
+        <v>1.043639285896302</v>
       </c>
       <c r="L22">
-        <v>1.016610921680745</v>
+        <v>1.045044597249886</v>
       </c>
       <c r="M22">
-        <v>1.024564747749807</v>
+        <v>1.054790603967933</v>
       </c>
       <c r="N22">
-        <v>1.014545801688898</v>
+        <v>1.040585725870479</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.983524149420797</v>
+        <v>1.032618360982011</v>
       </c>
       <c r="D23">
-        <v>1.009576527455667</v>
+        <v>1.0402255608648</v>
       </c>
       <c r="E23">
-        <v>1.002682773358364</v>
+        <v>1.041676680530788</v>
       </c>
       <c r="F23">
-        <v>1.010926871410472</v>
+        <v>1.051484083814953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043445484710453</v>
+        <v>1.035609109255784</v>
       </c>
       <c r="J23">
-        <v>1.014327001663643</v>
+        <v>1.039343753905938</v>
       </c>
       <c r="K23">
-        <v>1.024652155524007</v>
+        <v>1.043850453541836</v>
       </c>
       <c r="L23">
-        <v>1.017889686621229</v>
+        <v>1.045296132825188</v>
       </c>
       <c r="M23">
-        <v>1.025977057339127</v>
+        <v>1.055067202614229</v>
       </c>
       <c r="N23">
-        <v>1.015767462350939</v>
+        <v>1.04081974125088</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9911682675273779</v>
+        <v>1.034060505594044</v>
       </c>
       <c r="D24">
-        <v>1.015311407470897</v>
+        <v>1.041328555475771</v>
       </c>
       <c r="E24">
-        <v>1.008933134843518</v>
+        <v>1.042940374563758</v>
       </c>
       <c r="F24">
-        <v>1.017681739327122</v>
+        <v>1.052843655151355</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045717812408265</v>
+        <v>1.035890836633562</v>
       </c>
       <c r="J24">
-        <v>1.019010578114772</v>
+        <v>1.040263129707661</v>
       </c>
       <c r="K24">
-        <v>1.029074869168928</v>
+        <v>1.044680126765512</v>
       </c>
       <c r="L24">
-        <v>1.02280516995226</v>
+        <v>1.046286393777344</v>
       </c>
       <c r="M24">
-        <v>1.031405299514132</v>
+        <v>1.056155971493527</v>
       </c>
       <c r="N24">
-        <v>1.020457690017842</v>
+        <v>1.041740422671694</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9996775838153369</v>
+        <v>1.035735515862525</v>
       </c>
       <c r="D25">
-        <v>1.021705976878718</v>
+        <v>1.042608125735083</v>
       </c>
       <c r="E25">
-        <v>1.015924200308674</v>
+        <v>1.04440976241113</v>
       </c>
       <c r="F25">
-        <v>1.025231242066726</v>
+        <v>1.05442389737855</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048185016493708</v>
+        <v>1.036209501567231</v>
       </c>
       <c r="J25">
-        <v>1.024215803425053</v>
+        <v>1.041328709295386</v>
       </c>
       <c r="K25">
-        <v>1.033976427381454</v>
+        <v>1.045639411613621</v>
       </c>
       <c r="L25">
-        <v>1.028280242558922</v>
+        <v>1.04743547724068</v>
       </c>
       <c r="M25">
-        <v>1.037450106544284</v>
+        <v>1.057419024762634</v>
       </c>
       <c r="N25">
-        <v>1.025670307345111</v>
+        <v>1.042807515504657</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_73/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_73/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.037072668327167</v>
+        <v>1.006200723042431</v>
       </c>
       <c r="D2">
-        <v>1.043628341595469</v>
+        <v>1.026613481703348</v>
       </c>
       <c r="E2">
-        <v>1.045584069080439</v>
+        <v>1.021307710837536</v>
       </c>
       <c r="F2">
-        <v>1.055686291238313</v>
+        <v>1.031040132831454</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036456979540641</v>
+        <v>1.050024081935434</v>
       </c>
       <c r="J2">
-        <v>1.042177528584906</v>
+        <v>1.028197540179305</v>
       </c>
       <c r="K2">
-        <v>1.046401671358399</v>
+        <v>1.03771409312567</v>
       </c>
       <c r="L2">
-        <v>1.048351899543528</v>
+        <v>1.032477966971988</v>
       </c>
       <c r="M2">
-        <v>1.058426066917074</v>
+        <v>1.042083325274658</v>
       </c>
       <c r="N2">
-        <v>1.04365754021493</v>
+        <v>1.029657698622271</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038044225850713</v>
+        <v>1.010796380426664</v>
       </c>
       <c r="D3">
-        <v>1.044368873155201</v>
+        <v>1.030072722720303</v>
       </c>
       <c r="E3">
-        <v>1.046438048109888</v>
+        <v>1.025113441825994</v>
       </c>
       <c r="F3">
-        <v>1.056604036749747</v>
+        <v>1.035143903588571</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036632779252859</v>
+        <v>1.05128834689308</v>
       </c>
       <c r="J3">
-        <v>1.042793202718466</v>
+        <v>1.03099699051421</v>
       </c>
       <c r="K3">
-        <v>1.046953460946603</v>
+        <v>1.040334750456257</v>
       </c>
       <c r="L3">
-        <v>1.049017237895863</v>
+        <v>1.035434766958593</v>
       </c>
       <c r="M3">
-        <v>1.059157037015363</v>
+        <v>1.045346023287147</v>
       </c>
       <c r="N3">
-        <v>1.044274088676378</v>
+        <v>1.032461124497748</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038673192967832</v>
+        <v>1.013708693992814</v>
       </c>
       <c r="D4">
-        <v>1.044847929730826</v>
+        <v>1.032265300607971</v>
       </c>
       <c r="E4">
-        <v>1.046991237183872</v>
+        <v>1.027530846037362</v>
       </c>
       <c r="F4">
-        <v>1.057198397439465</v>
+        <v>1.037749391358892</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036744728684612</v>
+        <v>1.052074624688485</v>
       </c>
       <c r="J4">
-        <v>1.043191281995167</v>
+        <v>1.032768113750854</v>
       </c>
       <c r="K4">
-        <v>1.047309722938608</v>
+        <v>1.041989303814802</v>
       </c>
       <c r="L4">
-        <v>1.049447720294752</v>
+        <v>1.037307975736133</v>
       </c>
       <c r="M4">
-        <v>1.059629909696378</v>
+        <v>1.047412600986808</v>
       </c>
       <c r="N4">
-        <v>1.044672733271313</v>
+        <v>1.034234762932539</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038937682759817</v>
+        <v>1.014918855540066</v>
       </c>
       <c r="D5">
-        <v>1.045049295738069</v>
+        <v>1.033176429637446</v>
       </c>
       <c r="E5">
-        <v>1.047223942010007</v>
+        <v>1.028536672870336</v>
       </c>
       <c r="F5">
-        <v>1.057448389286197</v>
+        <v>1.038833180599253</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036791359456251</v>
+        <v>1.052397718325648</v>
       </c>
       <c r="J5">
-        <v>1.043358561016328</v>
+        <v>1.033503336686818</v>
       </c>
       <c r="K5">
-        <v>1.047459306995139</v>
+        <v>1.042675289365926</v>
       </c>
       <c r="L5">
-        <v>1.049628685420865</v>
+        <v>1.038086184064284</v>
       </c>
       <c r="M5">
-        <v>1.059828676905069</v>
+        <v>1.048271036482165</v>
       </c>
       <c r="N5">
-        <v>1.044840249847871</v>
+        <v>1.034971029969403</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038982095957593</v>
+        <v>1.015121230397196</v>
       </c>
       <c r="D6">
-        <v>1.045083104213219</v>
+        <v>1.033328798106115</v>
       </c>
       <c r="E6">
-        <v>1.047263022588626</v>
+        <v>1.028704953008718</v>
       </c>
       <c r="F6">
-        <v>1.057490371166817</v>
+        <v>1.03901448694509</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036799163569412</v>
+        <v>1.052451534127093</v>
       </c>
       <c r="J6">
-        <v>1.04338664356177</v>
+        <v>1.033626243373844</v>
       </c>
       <c r="K6">
-        <v>1.047484411731843</v>
+        <v>1.042789914716796</v>
       </c>
       <c r="L6">
-        <v>1.04965906966379</v>
+        <v>1.038216312329785</v>
       </c>
       <c r="M6">
-        <v>1.05986204908948</v>
+        <v>1.04841457358157</v>
       </c>
       <c r="N6">
-        <v>1.044868372273748</v>
+        <v>1.035094111198022</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038676726811489</v>
+        <v>1.013724919258772</v>
       </c>
       <c r="D7">
-        <v>1.044850620510475</v>
+        <v>1.032277516504561</v>
       </c>
       <c r="E7">
-        <v>1.046994346032427</v>
+        <v>1.027544326539692</v>
       </c>
       <c r="F7">
-        <v>1.057201737362729</v>
+        <v>1.037763917908795</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036745353468655</v>
+        <v>1.052078970988289</v>
       </c>
       <c r="J7">
-        <v>1.043193517475672</v>
+        <v>1.032777974226047</v>
       </c>
       <c r="K7">
-        <v>1.047311722430089</v>
+        <v>1.04199850731388</v>
       </c>
       <c r="L7">
-        <v>1.049450138398969</v>
+        <v>1.037318410309205</v>
       </c>
       <c r="M7">
-        <v>1.059632565746932</v>
+        <v>1.047424111707788</v>
       </c>
       <c r="N7">
-        <v>1.044674971926457</v>
+        <v>1.034244637410737</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037400947185703</v>
+        <v>1.00776687879947</v>
       </c>
       <c r="D8">
-        <v>1.043878631060245</v>
+        <v>1.027792231661775</v>
       </c>
       <c r="E8">
-        <v>1.04587254871274</v>
+        <v>1.022603448801066</v>
       </c>
       <c r="F8">
-        <v>1.055996339545038</v>
+        <v>1.032437602748296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03651676513278</v>
+        <v>1.050458021948856</v>
       </c>
       <c r="J8">
-        <v>1.042385660718052</v>
+        <v>1.02915215455989</v>
       </c>
       <c r="K8">
-        <v>1.046588312657826</v>
+        <v>1.038608452575639</v>
       </c>
       <c r="L8">
-        <v>1.048576760576839</v>
+        <v>1.033485704976978</v>
       </c>
       <c r="M8">
-        <v>1.05867312453158</v>
+        <v>1.043195406204505</v>
       </c>
       <c r="N8">
-        <v>1.043865967919578</v>
+        <v>1.030613668664768</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035155230024456</v>
+        <v>0.9967731303915794</v>
       </c>
       <c r="D9">
-        <v>1.042165027898826</v>
+        <v>1.019522278897026</v>
       </c>
       <c r="E9">
-        <v>1.043900508940992</v>
+        <v>1.013533983053949</v>
       </c>
       <c r="F9">
-        <v>1.053876302797093</v>
+        <v>1.022650832442778</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036100172289784</v>
+        <v>1.047350990213562</v>
       </c>
       <c r="J9">
-        <v>1.040959834704433</v>
+        <v>1.022440354602212</v>
       </c>
       <c r="K9">
-        <v>1.045307624853312</v>
+        <v>1.032306366693496</v>
       </c>
       <c r="L9">
-        <v>1.047037527815955</v>
+        <v>1.026411231816819</v>
       </c>
       <c r="M9">
-        <v>1.056981647683585</v>
+        <v>1.035386802381849</v>
       </c>
       <c r="N9">
-        <v>1.042438117069476</v>
+        <v>1.023892337181295</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033659727636023</v>
+        <v>0.9890742371352549</v>
       </c>
       <c r="D10">
-        <v>1.041022146995464</v>
+        <v>1.013739393017497</v>
       </c>
       <c r="E10">
-        <v>1.042589059019807</v>
+        <v>1.00721812071679</v>
       </c>
       <c r="F10">
-        <v>1.052465734382275</v>
+        <v>1.015828766097995</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03581321264756</v>
+        <v>1.045100208637189</v>
       </c>
       <c r="J10">
-        <v>1.040007806886366</v>
+        <v>1.017728148070717</v>
       </c>
       <c r="K10">
-        <v>1.044449897474266</v>
+        <v>1.027864931805159</v>
       </c>
       <c r="L10">
-        <v>1.046011279677142</v>
+        <v>1.021458261385607</v>
       </c>
       <c r="M10">
-        <v>1.055853516276417</v>
+        <v>1.029917989938069</v>
       </c>
       <c r="N10">
-        <v>1.041484737262708</v>
+        <v>1.019173438776027</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033012557907566</v>
+        <v>0.9856438574047293</v>
       </c>
       <c r="D11">
-        <v>1.040527170222608</v>
+        <v>1.011165764048382</v>
       </c>
       <c r="E11">
-        <v>1.042021971691876</v>
+        <v>1.00441318888253</v>
       </c>
       <c r="F11">
-        <v>1.051855620971629</v>
+        <v>1.012797426542587</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035686774890858</v>
+        <v>1.044080396392394</v>
       </c>
       <c r="J11">
-        <v>1.039595229246128</v>
+        <v>1.015626309178137</v>
       </c>
       <c r="K11">
-        <v>1.044077571543895</v>
+        <v>1.025880138300292</v>
       </c>
       <c r="L11">
-        <v>1.045566893424691</v>
+        <v>1.019252356075744</v>
       </c>
       <c r="M11">
-        <v>1.055364923475025</v>
+        <v>1.027481971293936</v>
       </c>
       <c r="N11">
-        <v>1.041071573714897</v>
+        <v>1.017068615031136</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032772229963359</v>
+        <v>0.9843543036919371</v>
       </c>
       <c r="D12">
-        <v>1.040343299830167</v>
+        <v>1.010198828939236</v>
       </c>
       <c r="E12">
-        <v>1.041811448495112</v>
+        <v>1.003360211195024</v>
       </c>
       <c r="F12">
-        <v>1.051629099948681</v>
+        <v>1.011659213726392</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035639483038133</v>
+        <v>1.043694556739163</v>
       </c>
       <c r="J12">
-        <v>1.039441928822678</v>
+        <v>1.014835901417516</v>
       </c>
       <c r="K12">
-        <v>1.043939135240614</v>
+        <v>1.025133209621278</v>
       </c>
       <c r="L12">
-        <v>1.045401827446493</v>
+        <v>1.018423316771611</v>
       </c>
       <c r="M12">
-        <v>1.055183423777465</v>
+        <v>1.026566399387143</v>
       </c>
       <c r="N12">
-        <v>1.040918055587261</v>
+        <v>1.016277084800833</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032823778409825</v>
+        <v>0.984631626287663</v>
       </c>
       <c r="D13">
-        <v>1.040382741265104</v>
+        <v>1.010406745140906</v>
       </c>
       <c r="E13">
-        <v>1.041856601063051</v>
+        <v>1.003586590352567</v>
       </c>
       <c r="F13">
-        <v>1.051677684828606</v>
+        <v>1.011903928457546</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035649642099291</v>
+        <v>1.043777643153192</v>
       </c>
       <c r="J13">
-        <v>1.039474814565193</v>
+        <v>1.01500589291063</v>
       </c>
       <c r="K13">
-        <v>1.043968836520838</v>
+        <v>1.025293873994561</v>
       </c>
       <c r="L13">
-        <v>1.045437234695073</v>
+        <v>1.018601593878316</v>
       </c>
       <c r="M13">
-        <v>1.055222356720431</v>
+        <v>1.026763286659682</v>
       </c>
       <c r="N13">
-        <v>1.040950988031303</v>
+        <v>1.016447317701366</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03299269110257</v>
+        <v>0.9855375807941387</v>
       </c>
       <c r="D14">
-        <v>1.040511971716224</v>
+        <v>1.01108606389235</v>
       </c>
       <c r="E14">
-        <v>1.042004567358657</v>
+        <v>1.004326379289195</v>
       </c>
       <c r="F14">
-        <v>1.051836894579572</v>
+        <v>1.01270359490392</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035682872403523</v>
+        <v>1.044048647769171</v>
       </c>
       <c r="J14">
-        <v>1.039582558414962</v>
+        <v>1.015561174317756</v>
       </c>
       <c r="K14">
-        <v>1.044066131162762</v>
+        <v>1.02581859716684</v>
       </c>
       <c r="L14">
-        <v>1.045553249037045</v>
+        <v>1.019184027469816</v>
       </c>
       <c r="M14">
-        <v>1.055349920944316</v>
+        <v>1.027406511729598</v>
       </c>
       <c r="N14">
-        <v>1.041058884889698</v>
+        <v>1.017003387671782</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033096771720656</v>
+        <v>0.9860937083886395</v>
       </c>
       <c r="D15">
-        <v>1.040591593049</v>
+        <v>1.011503144245502</v>
       </c>
       <c r="E15">
-        <v>1.042095749987683</v>
+        <v>1.004780699072016</v>
       </c>
       <c r="F15">
-        <v>1.05193500255138</v>
+        <v>1.013194654863873</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035703303347014</v>
+        <v>1.044214682736689</v>
       </c>
       <c r="J15">
-        <v>1.039648936261903</v>
+        <v>1.015902002933412</v>
       </c>
       <c r="K15">
-        <v>1.044126059362636</v>
+        <v>1.026140599312255</v>
       </c>
       <c r="L15">
-        <v>1.045624729180324</v>
+        <v>1.019541588400978</v>
       </c>
       <c r="M15">
-        <v>1.055428515574618</v>
+        <v>1.027801386698645</v>
       </c>
       <c r="N15">
-        <v>1.041125357000794</v>
+        <v>1.017344700303166</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033702686493565</v>
+        <v>0.9892997932326274</v>
       </c>
       <c r="D16">
-        <v>1.041054994941214</v>
+        <v>1.013908686472297</v>
       </c>
       <c r="E16">
-        <v>1.042626711258728</v>
+        <v>1.007402749976339</v>
       </c>
       <c r="F16">
-        <v>1.052506239869706</v>
+        <v>1.016028264791879</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035821557979681</v>
+        <v>1.045166917291746</v>
       </c>
       <c r="J16">
-        <v>1.04003518114591</v>
+        <v>1.017866307295358</v>
       </c>
       <c r="K16">
-        <v>1.044474588130645</v>
+        <v>1.027995321675781</v>
       </c>
       <c r="L16">
-        <v>1.046040771916395</v>
+        <v>1.021603330681975</v>
       </c>
       <c r="M16">
-        <v>1.05588594046614</v>
+        <v>1.030078185177517</v>
       </c>
       <c r="N16">
-        <v>1.041512150396839</v>
+        <v>1.019311794202615</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034082866456137</v>
+        <v>0.9912844275242132</v>
       </c>
       <c r="D17">
-        <v>1.04134564838024</v>
+        <v>1.015398630671116</v>
       </c>
       <c r="E17">
-        <v>1.042959978703593</v>
+        <v>1.009028332000803</v>
       </c>
       <c r="F17">
-        <v>1.052864742785462</v>
+        <v>1.017784583573664</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035895152159582</v>
+        <v>1.045751958326627</v>
       </c>
       <c r="J17">
-        <v>1.040277371051419</v>
+        <v>1.019081702067552</v>
       </c>
       <c r="K17">
-        <v>1.044692964255928</v>
+        <v>1.029141947613954</v>
       </c>
       <c r="L17">
-        <v>1.046301741461684</v>
+        <v>1.02287989223057</v>
       </c>
       <c r="M17">
-        <v>1.056172843839215</v>
+        <v>1.031487808298599</v>
       </c>
       <c r="N17">
-        <v>1.041754684239795</v>
+        <v>1.020528914974793</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034304656835725</v>
+        <v>0.9924327592358334</v>
       </c>
       <c r="D18">
-        <v>1.041515171703769</v>
+        <v>1.016261011213114</v>
       </c>
       <c r="E18">
-        <v>1.043154443059454</v>
+        <v>1.00996978099173</v>
       </c>
       <c r="F18">
-        <v>1.053073916224233</v>
+        <v>1.018801596417839</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035937867793505</v>
+        <v>1.046088858215025</v>
       </c>
       <c r="J18">
-        <v>1.040418603143511</v>
+        <v>1.019784727866065</v>
       </c>
       <c r="K18">
-        <v>1.044820250105845</v>
+        <v>1.029804839985586</v>
       </c>
       <c r="L18">
-        <v>1.04645395916297</v>
+        <v>1.023618613822946</v>
       </c>
       <c r="M18">
-        <v>1.056340179569387</v>
+        <v>1.032303494272799</v>
       </c>
       <c r="N18">
-        <v>1.041896116897657</v>
+        <v>1.021232939150577</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034380288020136</v>
+        <v>0.9928227621955038</v>
       </c>
       <c r="D19">
-        <v>1.041572973055239</v>
+        <v>1.016553943020874</v>
       </c>
       <c r="E19">
-        <v>1.04322076307914</v>
+        <v>1.010289666568388</v>
       </c>
       <c r="F19">
-        <v>1.053145249905032</v>
+        <v>1.019147131368896</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03595239697909</v>
+        <v>1.046203002568193</v>
       </c>
       <c r="J19">
-        <v>1.040466753982625</v>
+        <v>1.020023455410016</v>
       </c>
       <c r="K19">
-        <v>1.044863636122791</v>
+        <v>1.03002987841138</v>
       </c>
       <c r="L19">
-        <v>1.046505861195137</v>
+        <v>1.023869515944574</v>
       </c>
       <c r="M19">
-        <v>1.056397234972808</v>
+        <v>1.032580530609121</v>
       </c>
       <c r="N19">
-        <v>1.041944336116485</v>
+        <v>1.021472005715024</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034042072824992</v>
+        <v>0.9910724598811321</v>
       </c>
       <c r="D20">
-        <v>1.041314465032444</v>
+        <v>1.015239468199291</v>
       </c>
       <c r="E20">
-        <v>1.042924214484553</v>
+        <v>1.008854622052201</v>
       </c>
       <c r="F20">
-        <v>1.052826272108251</v>
+        <v>1.017596918826068</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03588727797995</v>
+        <v>1.045689640055672</v>
       </c>
       <c r="J20">
-        <v>1.04025138979255</v>
+        <v>1.018951914538234</v>
       </c>
       <c r="K20">
-        <v>1.044669543788631</v>
+        <v>1.029019540344595</v>
       </c>
       <c r="L20">
-        <v>1.046273742039003</v>
+        <v>1.022743540230702</v>
       </c>
       <c r="M20">
-        <v>1.056142062864597</v>
+        <v>1.03133724740541</v>
       </c>
       <c r="N20">
-        <v>1.041728666084558</v>
+        <v>1.020398943132297</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032942948870625</v>
+        <v>0.9852712306841404</v>
       </c>
       <c r="D21">
-        <v>1.04047391694475</v>
+        <v>1.010886328746535</v>
       </c>
       <c r="E21">
-        <v>1.041960991697427</v>
+        <v>1.00410884107421</v>
       </c>
       <c r="F21">
-        <v>1.051790008442733</v>
+        <v>1.012468456089757</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03567309593555</v>
+        <v>1.043969039937128</v>
       </c>
       <c r="J21">
-        <v>1.039550831929809</v>
+        <v>1.015397929192714</v>
       </c>
       <c r="K21">
-        <v>1.044037484113791</v>
+        <v>1.025664350310832</v>
       </c>
       <c r="L21">
-        <v>1.045519085728539</v>
+        <v>1.019012786095117</v>
       </c>
       <c r="M21">
-        <v>1.055312356853269</v>
+        <v>1.027217398361757</v>
       </c>
       <c r="N21">
-        <v>1.041027113349297</v>
+        <v>1.016839910719938</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032252231823204</v>
+        <v>0.9815344560680089</v>
       </c>
       <c r="D22">
-        <v>1.039945350762098</v>
+        <v>1.008085557816171</v>
       </c>
       <c r="E22">
-        <v>1.041356060275484</v>
+        <v>1.001060443145424</v>
       </c>
       <c r="F22">
-        <v>1.051139060650108</v>
+        <v>1.00917284250796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035536538182189</v>
+        <v>1.04284638873663</v>
       </c>
       <c r="J22">
-        <v>1.039110070382944</v>
+        <v>1.013107073439609</v>
       </c>
       <c r="K22">
-        <v>1.043639285896302</v>
+        <v>1.023498522109104</v>
       </c>
       <c r="L22">
-        <v>1.045044597249886</v>
+        <v>1.016610921680744</v>
       </c>
       <c r="M22">
-        <v>1.054790603967933</v>
+        <v>1.024564747749807</v>
       </c>
       <c r="N22">
-        <v>1.040585725870479</v>
+        <v>1.014545801688898</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032618360982011</v>
+        <v>0.9835241494207959</v>
       </c>
       <c r="D23">
-        <v>1.0402255608648</v>
+        <v>1.009576527455666</v>
       </c>
       <c r="E23">
-        <v>1.041676680530788</v>
+        <v>1.002682773358363</v>
       </c>
       <c r="F23">
-        <v>1.051484083814953</v>
+        <v>1.010926871410471</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035609109255784</v>
+        <v>1.043445484710453</v>
       </c>
       <c r="J23">
-        <v>1.039343753905938</v>
+        <v>1.014327001663642</v>
       </c>
       <c r="K23">
-        <v>1.043850453541836</v>
+        <v>1.024652155524006</v>
       </c>
       <c r="L23">
-        <v>1.045296132825188</v>
+        <v>1.017889686621227</v>
       </c>
       <c r="M23">
-        <v>1.055067202614229</v>
+        <v>1.025977057339126</v>
       </c>
       <c r="N23">
-        <v>1.04081974125088</v>
+        <v>1.015767462350938</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034060505594044</v>
+        <v>0.9911682675273776</v>
       </c>
       <c r="D24">
-        <v>1.041328555475771</v>
+        <v>1.015311407470897</v>
       </c>
       <c r="E24">
-        <v>1.042940374563758</v>
+        <v>1.008933134843518</v>
       </c>
       <c r="F24">
-        <v>1.052843655151355</v>
+        <v>1.017681739327121</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035890836633562</v>
+        <v>1.045717812408265</v>
       </c>
       <c r="J24">
-        <v>1.040263129707661</v>
+        <v>1.019010578114772</v>
       </c>
       <c r="K24">
-        <v>1.044680126765512</v>
+        <v>1.029074869168928</v>
       </c>
       <c r="L24">
-        <v>1.046286393777344</v>
+        <v>1.02280516995226</v>
       </c>
       <c r="M24">
-        <v>1.056155971493527</v>
+        <v>1.031405299514131</v>
       </c>
       <c r="N24">
-        <v>1.041740422671694</v>
+        <v>1.020457690017842</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035735515862525</v>
+        <v>0.9996775838153372</v>
       </c>
       <c r="D25">
-        <v>1.042608125735083</v>
+        <v>1.021705976878718</v>
       </c>
       <c r="E25">
-        <v>1.04440976241113</v>
+        <v>1.015924200308675</v>
       </c>
       <c r="F25">
-        <v>1.05442389737855</v>
+        <v>1.025231242066726</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036209501567231</v>
+        <v>1.048185016493709</v>
       </c>
       <c r="J25">
-        <v>1.041328709295386</v>
+        <v>1.024215803425053</v>
       </c>
       <c r="K25">
-        <v>1.045639411613621</v>
+        <v>1.033976427381455</v>
       </c>
       <c r="L25">
-        <v>1.04743547724068</v>
+        <v>1.028280242558922</v>
       </c>
       <c r="M25">
-        <v>1.057419024762634</v>
+        <v>1.037450106544285</v>
       </c>
       <c r="N25">
-        <v>1.042807515504657</v>
+        <v>1.025670307345111</v>
       </c>
     </row>
   </sheetData>
